--- a/docs/collections/mizuno/metadata/data.xlsx
+++ b/docs/collections/mizuno/metadata/data.xlsx
@@ -55,7 +55,7 @@
     <t>dcterms:references</t>
   </si>
   <si>
-    <t>機械可読データ</t>
+    <t>機械可読ドキュメント</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/12</t>
@@ -64,46 +64,46 @@
     <t>dcterms:isReferencedBy</t>
   </si>
   <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/12/manifest</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
+  </si>
+  <si>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>d28ad412-0d21-4a16-ab81-840fe3ffde71</t>
+  </si>
+  <si>
+    <t>ソート用項目</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
     <t>サムネイル</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif-img/30/full/200,151/0/default.jpg</t>
   </si>
   <si>
-    <t>マニフェストURI</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/12/manifest</t>
-  </si>
-  <si>
-    <t>ソート用</t>
-  </si>
-  <si>
-    <t>コレクション名</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>d28ad412-0d21-4a16-ab81-840fe3ffde71</t>
-  </si>
-  <si>
-    <t>所蔵</t>
-  </si>
-  <si>
-    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
-  </si>
-  <si>
-    <t>年</t>
-  </si>
-  <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
-  </si>
-  <si>
-    <t>サイトURL</t>
+    <t>ウェブサイトURL</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/mizuno/</t>
@@ -479,19 +479,19 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1" t="s">
         <v>17</v>
       </c>
       <c r="L1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" t="s">
         <v>22</v>
@@ -519,20 +519,20 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
         <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>24</v>
@@ -546,9 +546,9 @@
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
     <hyperlink ref="F2" r:id="rId3"/>
-    <hyperlink ref="H2" r:id="rId4"/>
-    <hyperlink ref="I2" r:id="rId5"/>
-    <hyperlink ref="O2" r:id="rId6" location="rightToLeftDirection"/>
+    <hyperlink ref="I2" r:id="rId4"/>
+    <hyperlink ref="J2" r:id="rId5" location="rightToLeftDirection"/>
+    <hyperlink ref="O2" r:id="rId6"/>
     <hyperlink ref="P2" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/collections/mizuno/metadata/data.xlsx
+++ b/docs/collections/mizuno/metadata/data.xlsx
@@ -14,15 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>dcterms:title</t>
+  </si>
+  <si>
     <t>水野家古文書(水野忠幹氏旧蔵書文書)</t>
   </si>
   <si>
     <t>説明</t>
+  </si>
+  <si>
+    <t>dcterms:description</t>
   </si>
   <si>
     <t>水野家古文書(水野忠幹氏旧蔵書文書)_x000D_
@@ -40,73 +46,106 @@
  小島浩之(東京大学大学院経済学研究科講師)</t>
   </si>
   <si>
-    <t>ライセンス</t>
+    <t>利用条件</t>
+  </si>
+  <si>
+    <t>dcterms:rights</t>
   </si>
   <si>
     <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>d28ad412-0d21-4a16-ab81-840fe3ffde71</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/mizuno/</t>
+  </si>
+  <si>
     <t>アイテムURL</t>
   </si>
   <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/mizuno/document/d28ad412-0d21-4a16-ab81-840fe3ffde71</t>
   </si>
   <si>
-    <t>dcterms:references</t>
+    <t>サムネイル</t>
+  </si>
+  <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif-img/30/full/200,151/0/default.jpg</t>
   </si>
   <si>
     <t>機械可読ドキュメント</t>
   </si>
   <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/12</t>
   </si>
   <si>
-    <t>dcterms:isReferencedBy</t>
-  </si>
-  <si>
-    <t>年</t>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
+    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>uterms:databaseLabel</t>
   </si>
   <si>
     <t>IIIFマニフェストURI</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/12/manifest</t>
-  </si>
-  <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
-  </si>
-  <si>
-    <t>帰属</t>
-  </si>
-  <si>
-    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>d28ad412-0d21-4a16-ab81-840fe3ffde71</t>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/d28ad412-0d21-4a16-ab81-840fe3ffde71/manifest</t>
   </si>
   <si>
     <t>ソート用項目</t>
   </si>
   <si>
-    <t>コレクション</t>
-  </si>
-  <si>
-    <t>サムネイル</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif-img/30/full/200,151/0/default.jpg</t>
-  </si>
-  <si>
-    <t>ウェブサイトURL</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/mizuno/</t>
+    <t>uterms:sort</t>
+  </si>
+  <si>
+    <t>西暦</t>
+  </si>
+  <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
+    <t># of media</t>
   </si>
 </sst>
 </file>
@@ -124,10 +163,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,14 +185,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -447,109 +490,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="O1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
         <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="F2" r:id="rId3"/>
-    <hyperlink ref="I2" r:id="rId4"/>
-    <hyperlink ref="J2" r:id="rId5" location="rightToLeftDirection"/>
-    <hyperlink ref="O2" r:id="rId6"/>
-    <hyperlink ref="P2" r:id="rId7"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
+    <hyperlink ref="H3" r:id="rId5"/>
+    <hyperlink ref="J3" r:id="rId6" location="rightToLeftDirection"/>
+    <hyperlink ref="L3" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/collections/mizuno/metadata/data.xlsx
+++ b/docs/collections/mizuno/metadata/data.xlsx
@@ -1,176 +1,197 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>ライセンス</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>アイテムURL</t>
+  </si>
+  <si>
+    <t>サムネイル</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>viewingHint</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>ソート用項目</t>
+  </si>
+  <si>
+    <t>西暦</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>IIIF Search API URI</t>
+  </si>
+  <si>
+    <t>アノテーション付きIIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>Link to TAPAS Project</t>
+  </si>
+  <si>
+    <t>Text with Rich Text Format</t>
+  </si>
+  <si>
+    <t># of media</t>
+  </si>
+  <si>
     <t>dcterms:title</t>
   </si>
   <si>
+    <t>dcterms:description</t>
+  </si>
+  <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
+    <t>sc:viewingHint</t>
+  </si>
+  <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
+    <t>uterms:sort</t>
+  </si>
+  <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
     <t>水野家古文書(水野忠幹氏旧蔵書文書)</t>
   </si>
   <si>
-    <t>説明</t>
-  </si>
-  <si>
-    <t>dcterms:description</t>
-  </si>
-  <si>
-    <t>水野家古文書(水野忠幹氏旧蔵書文書)_x000D_
-概要_x000D_
-_x000D_
-本文書は、紀州徳川家の附家老であった水野家が所蔵していた古文書類で、太政官牒二紙、複数の古文書を表装した巻子三軸からなる。_x000D_
-これらは明治33(1900)年に、水野家第十代当主忠幹(ただもと)から南葵文庫に寄贈されたものである。関東大震災の後、南葵文庫の蔵書は東京帝国大学へと寄贈されるが、本文書は未整理のまま留め置かれていた。このたび調査が行われ、東京大学総合図書館はこの5点を貴重図書に指定した。_x000D_
-_x000D_
-解題_x000D_
-_x000D_
-【太政官牒について】(A00:6584)_x000D_
-【古文書巻子三軸について】(A00:6585)_x000D_
-_x000D_
- 富田正弘(富山大学名誉教授)_x000D_
+    <t>水野家古文書(水野忠幹氏旧蔵書文書)
+概要
+本文書は、紀州徳川家の附家老であった水野家が所蔵していた古文書類で、太政官牒二紙、複数の古文書を表装した巻子三軸からなる。
+これらは明治33(1900)年に、水野家第十代当主忠幹(ただもと)から南葵文庫に寄贈されたものである。関東大震災の後、南葵文庫の蔵書は東京帝国大学へと寄贈されるが、本文書は未整理のまま留め置かれていた。このたび調査が行われ、東京大学総合図書館はこの5点を貴重図書に指定した。
+解題
+【太政官牒について】(A00:6584)
+【古文書巻子三軸について】(A00:6585)
+ 富田正弘(富山大学名誉教授)
  小島浩之(東京大学大学院経済学研究科講師)</t>
   </si>
   <si>
-    <t>利用条件</t>
-  </si>
-  <si>
-    <t>dcterms:rights</t>
-  </si>
-  <si>
     <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>bibo:identifier</t>
-  </si>
-  <si>
     <t>d28ad412-0d21-4a16-ab81-840fe3ffde71</t>
   </si>
   <si>
-    <t>ウェブサイトURL</t>
-  </si>
-  <si>
-    <t>dcterms:isPartOf</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/mizuno/</t>
   </si>
   <si>
-    <t>アイテムURL</t>
-  </si>
-  <si>
-    <t>dcterms:relation</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/mizuno/document/d28ad412-0d21-4a16-ab81-840fe3ffde71</t>
   </si>
   <si>
-    <t>サムネイル</t>
-  </si>
-  <si>
-    <t>foaf:thumbnail</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif-img/30/full/200,151/0/default.jpg</t>
   </si>
   <si>
-    <t>機械可読ドキュメント</t>
-  </si>
-  <si>
-    <t>rdfs:seeAlso</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/12</t>
   </si>
   <si>
-    <t>帰属</t>
-  </si>
-  <si>
-    <t>sc:attributionLabel</t>
-  </si>
-  <si>
     <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
   </si>
   <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>sc:viewingDirection</t>
-  </si>
-  <si>
     <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
   </si>
   <si>
-    <t>コレクション</t>
-  </si>
-  <si>
-    <t>uterms:databaseLabel</t>
-  </si>
-  <si>
-    <t>IIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>uterms:manifestUri</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/d28ad412-0d21-4a16-ab81-840fe3ffde71/manifest</t>
-  </si>
-  <si>
-    <t>ソート用項目</t>
-  </si>
-  <si>
-    <t>uterms:sort</t>
-  </si>
-  <si>
-    <t>西暦</t>
-  </si>
-  <si>
-    <t>uterms:year</t>
-  </si>
-  <si>
-    <t># of media</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -185,23 +206,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -489,158 +503,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
         <v>32</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
         <v>35</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
         <v>37</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="n">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="F3" r:id="rId3"/>
-    <hyperlink ref="G3" r:id="rId4"/>
-    <hyperlink ref="H3" r:id="rId5"/>
-    <hyperlink ref="J3" r:id="rId6" location="rightToLeftDirection"/>
-    <hyperlink ref="L3" r:id="rId7"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/docs/collections/mizuno/metadata/data.xlsx
+++ b/docs/collections/mizuno/metadata/data.xlsx
@@ -148,7 +148,7 @@
  小島浩之(東京大学大学院経済学研究科講師)</t>
   </si>
   <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
   </si>
   <si>
     <t>d28ad412-0d21-4a16-ab81-840fe3ffde71</t>

--- a/docs/collections/mizuno/metadata/data.xlsx
+++ b/docs/collections/mizuno/metadata/data.xlsx
@@ -1,197 +1,206 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>dcterms:title</t>
+  </si>
+  <si>
+    <t>水野家古文書(水野忠幹氏旧蔵書文書)</t>
+  </si>
+  <si>
     <t>説明</t>
   </si>
   <si>
+    <t>dcterms:description</t>
+  </si>
+  <si>
+    <t>水野家古文書(水野忠幹氏旧蔵書文書)_x000D_
+概要_x000D_
+_x000D_
+本文書は、紀州徳川家の附家老であった水野家が所蔵していた古文書類で、太政官牒二紙、複数の古文書を表装した巻子三軸からなる。_x000D_
+これらは明治33(1900)年に、水野家第十代当主忠幹(ただもと)から南葵文庫に寄贈されたものである。関東大震災の後、南葵文庫の蔵書は東京帝国大学へと寄贈されるが、本文書は未整理のまま留め置かれていた。このたび調査が行われ、東京大学総合図書館はこの5点を貴重図書に指定した。_x000D_
+_x000D_
+解題_x000D_
+_x000D_
+【太政官牒について】(A00:6584)_x000D_
+【古文書巻子三軸について】(A00:6585)_x000D_
+_x000D_
+ 富田正弘(富山大学名誉教授)_x000D_
+ 小島浩之(東京大学大学院経済学研究科講師)</t>
+  </si>
+  <si>
     <t>ライセンス</t>
   </si>
   <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>d28ad412-0d21-4a16-ab81-840fe3ffde71</t>
+  </si>
+  <si>
     <t>ウェブサイトURL</t>
   </si>
   <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/mizuno/</t>
+  </si>
+  <si>
     <t>アイテムURL</t>
   </si>
   <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/mizuno/document/d28ad412-0d21-4a16-ab81-840fe3ffde71</t>
+  </si>
+  <si>
     <t>サムネイル</t>
   </si>
   <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f2ddec98528bbfb7b513755619bed5681a143511.jpg</t>
+  </si>
+  <si>
     <t>機械可読ドキュメント</t>
   </si>
   <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/12</t>
+  </si>
+  <si>
     <t>帰属</t>
   </si>
   <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
+  </si>
+  <si>
     <t>viewingDirection</t>
   </si>
   <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
+    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
+  </si>
+  <si>
     <t>viewingHint</t>
   </si>
   <si>
+    <t>sc:viewingHint</t>
+  </si>
+  <si>
     <t>コレクション</t>
   </si>
   <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
     <t>ソート用項目</t>
   </si>
   <si>
+    <t>uterms:sort</t>
+  </si>
+  <si>
     <t>西暦</t>
   </si>
   <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
     <t>IIIFマニフェストURI</t>
   </si>
   <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/d28ad412-0d21-4a16-ab81-840fe3ffde71/manifest</t>
+  </si>
+  <si>
     <t>IIIF Search API URI</t>
   </si>
   <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
     <t>アノテーション付きIIIFマニフェストURI</t>
   </si>
   <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
     <t>Link to TAPAS Project</t>
   </si>
   <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
     <t>Text with Rich Text Format</t>
   </si>
   <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
     <t># of media</t>
-  </si>
-  <si>
-    <t>dcterms:title</t>
-  </si>
-  <si>
-    <t>dcterms:description</t>
-  </si>
-  <si>
-    <t>dcterms:rights</t>
-  </si>
-  <si>
-    <t>bibo:identifier</t>
-  </si>
-  <si>
-    <t>dcterms:isPartOf</t>
-  </si>
-  <si>
-    <t>dcterms:relation</t>
-  </si>
-  <si>
-    <t>foaf:thumbnail</t>
-  </si>
-  <si>
-    <t>rdfs:seeAlso</t>
-  </si>
-  <si>
-    <t>sc:attributionLabel</t>
-  </si>
-  <si>
-    <t>sc:viewingDirection</t>
-  </si>
-  <si>
-    <t>sc:viewingHint</t>
-  </si>
-  <si>
-    <t>uterms:databaseLabel</t>
-  </si>
-  <si>
-    <t>uterms:sort</t>
-  </si>
-  <si>
-    <t>uterms:year</t>
-  </si>
-  <si>
-    <t>uterms:manifestUri</t>
-  </si>
-  <si>
-    <t>uterms:searchApiUri</t>
-  </si>
-  <si>
-    <t>uterms:annotedManifest</t>
-  </si>
-  <si>
-    <t>uterms:linkToTapas</t>
-  </si>
-  <si>
-    <t>uterms:rtf</t>
-  </si>
-  <si>
-    <t>水野家古文書(水野忠幹氏旧蔵書文書)</t>
-  </si>
-  <si>
-    <t>水野家古文書(水野忠幹氏旧蔵書文書)
-概要
-本文書は、紀州徳川家の附家老であった水野家が所蔵していた古文書類で、太政官牒二紙、複数の古文書を表装した巻子三軸からなる。
-これらは明治33(1900)年に、水野家第十代当主忠幹(ただもと)から南葵文庫に寄贈されたものである。関東大震災の後、南葵文庫の蔵書は東京帝国大学へと寄贈されるが、本文書は未整理のまま留め置かれていた。このたび調査が行われ、東京大学総合図書館はこの5点を貴重図書に指定した。
-解題
-【太政官牒について】(A00:6584)
-【古文書巻子三軸について】(A00:6585)
- 富田正弘(富山大学名誉教授)
- 小島浩之(東京大学大学院経済学研究科講師)</t>
-  </si>
-  <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
-  </si>
-  <si>
-    <t>d28ad412-0d21-4a16-ab81-840fe3ffde71</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/mizuno/</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/mizuno/document/d28ad412-0d21-4a16-ab81-840fe3ffde71</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif-img/30/full/200,151/0/default.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/12</t>
-  </si>
-  <si>
-    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
-  </si>
-  <si>
-    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/d28ad412-0d21-4a16-ab81-840fe3ffde71/manifest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -206,16 +215,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -503,192 +519,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="T1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" t="n">
+        <v>48</v>
+      </c>
+      <c r="T2">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
+    <hyperlink ref="H3" r:id="rId5"/>
+    <hyperlink ref="J3" r:id="rId6" location="rightToLeftDirection"/>
+    <hyperlink ref="O3" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/collections/mizuno/metadata/data.xlsx
+++ b/docs/collections/mizuno/metadata/data.xlsx
@@ -1,206 +1,197 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>ライセンス</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>アイテムURL</t>
+  </si>
+  <si>
+    <t>サムネイル</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>viewingHint</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>ソート用項目</t>
+  </si>
+  <si>
+    <t>西暦</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>IIIF Search API URI</t>
+  </si>
+  <si>
+    <t>アノテーション付きIIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>Link to TAPAS Project</t>
+  </si>
+  <si>
+    <t>Text with Rich Text Format</t>
+  </si>
+  <si>
+    <t># of media</t>
+  </si>
+  <si>
     <t>dcterms:title</t>
   </si>
   <si>
+    <t>dcterms:description</t>
+  </si>
+  <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
+    <t>sc:viewingHint</t>
+  </si>
+  <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
+    <t>uterms:sort</t>
+  </si>
+  <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
     <t>水野家古文書(水野忠幹氏旧蔵書文書)</t>
   </si>
   <si>
-    <t>説明</t>
-  </si>
-  <si>
-    <t>dcterms:description</t>
-  </si>
-  <si>
-    <t>水野家古文書(水野忠幹氏旧蔵書文書)_x000D_
-概要_x000D_
-_x000D_
-本文書は、紀州徳川家の附家老であった水野家が所蔵していた古文書類で、太政官牒二紙、複数の古文書を表装した巻子三軸からなる。_x000D_
-これらは明治33(1900)年に、水野家第十代当主忠幹(ただもと)から南葵文庫に寄贈されたものである。関東大震災の後、南葵文庫の蔵書は東京帝国大学へと寄贈されるが、本文書は未整理のまま留め置かれていた。このたび調査が行われ、東京大学総合図書館はこの5点を貴重図書に指定した。_x000D_
-_x000D_
-解題_x000D_
-_x000D_
-【太政官牒について】(A00:6584)_x000D_
-【古文書巻子三軸について】(A00:6585)_x000D_
-_x000D_
- 富田正弘(富山大学名誉教授)_x000D_
+    <t>水野家古文書(水野忠幹氏旧蔵書文書)
+概要
+本文書は、紀州徳川家の附家老であった水野家が所蔵していた古文書類で、太政官牒二紙、複数の古文書を表装した巻子三軸からなる。
+これらは明治33(1900)年に、水野家第十代当主忠幹(ただもと)から南葵文庫に寄贈されたものである。関東大震災の後、南葵文庫の蔵書は東京帝国大学へと寄贈されるが、本文書は未整理のまま留め置かれていた。このたび調査が行われ、東京大学総合図書館はこの5点を貴重図書に指定した。
+解題
+【太政官牒について】(A00:6584)
+【古文書巻子三軸について】(A00:6585)
+ 富田正弘(富山大学名誉教授)
  小島浩之(東京大学大学院経済学研究科講師)</t>
   </si>
   <si>
-    <t>ライセンス</t>
-  </si>
-  <si>
-    <t>dcterms:rights</t>
-  </si>
-  <si>
     <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>bibo:identifier</t>
-  </si>
-  <si>
     <t>d28ad412-0d21-4a16-ab81-840fe3ffde71</t>
   </si>
   <si>
-    <t>ウェブサイトURL</t>
-  </si>
-  <si>
-    <t>dcterms:isPartOf</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/mizuno/</t>
   </si>
   <si>
-    <t>アイテムURL</t>
-  </si>
-  <si>
-    <t>dcterms:relation</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/mizuno/document/d28ad412-0d21-4a16-ab81-840fe3ffde71</t>
   </si>
   <si>
-    <t>サムネイル</t>
-  </si>
-  <si>
-    <t>foaf:thumbnail</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f2ddec98528bbfb7b513755619bed5681a143511.jpg</t>
   </si>
   <si>
-    <t>機械可読ドキュメント</t>
-  </si>
-  <si>
-    <t>rdfs:seeAlso</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/12</t>
   </si>
   <si>
-    <t>帰属</t>
-  </si>
-  <si>
-    <t>sc:attributionLabel</t>
-  </si>
-  <si>
     <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
   </si>
   <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>sc:viewingDirection</t>
-  </si>
-  <si>
     <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
   </si>
   <si>
-    <t>viewingHint</t>
-  </si>
-  <si>
-    <t>sc:viewingHint</t>
-  </si>
-  <si>
-    <t>コレクション</t>
-  </si>
-  <si>
-    <t>uterms:databaseLabel</t>
-  </si>
-  <si>
-    <t>ソート用項目</t>
-  </si>
-  <si>
-    <t>uterms:sort</t>
-  </si>
-  <si>
-    <t>西暦</t>
-  </si>
-  <si>
-    <t>uterms:year</t>
-  </si>
-  <si>
-    <t>IIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>uterms:manifestUri</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/d28ad412-0d21-4a16-ab81-840fe3ffde71/manifest</t>
-  </si>
-  <si>
-    <t>IIIF Search API URI</t>
-  </si>
-  <si>
-    <t>uterms:searchApiUri</t>
-  </si>
-  <si>
-    <t>アノテーション付きIIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>uterms:annotedManifest</t>
-  </si>
-  <si>
-    <t>Link to TAPAS Project</t>
-  </si>
-  <si>
-    <t>uterms:linkToTapas</t>
-  </si>
-  <si>
-    <t>Text with Rich Text Format</t>
-  </si>
-  <si>
-    <t>uterms:rtf</t>
-  </si>
-  <si>
-    <t># of media</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -215,23 +206,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -519,188 +503,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>47</v>
-      </c>
       <c r="T1" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
         <v>37</v>
       </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" t="s">
-        <v>46</v>
-      </c>
       <c r="S2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2">
+        <v>38</v>
+      </c>
+      <c r="T2" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s"/>
       <c r="L3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="n">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="F3" r:id="rId3"/>
-    <hyperlink ref="G3" r:id="rId4"/>
-    <hyperlink ref="H3" r:id="rId5"/>
-    <hyperlink ref="J3" r:id="rId6" location="rightToLeftDirection"/>
-    <hyperlink ref="O3" r:id="rId7"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/docs/collections/mizuno/metadata/data.xlsx
+++ b/docs/collections/mizuno/metadata/data.xlsx
@@ -1,197 +1,206 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>dcterms:title</t>
+  </si>
+  <si>
+    <t>水野家古文書(水野忠幹氏旧蔵書文書)</t>
+  </si>
+  <si>
     <t>説明</t>
   </si>
   <si>
+    <t>dcterms:description</t>
+  </si>
+  <si>
+    <t>水野家古文書(水野忠幹氏旧蔵書文書)_x000D_
+概要_x000D_
+_x000D_
+本文書は、紀州徳川家の附家老であった水野家が所蔵していた古文書類で、太政官牒二紙、複数の古文書を表装した巻子三軸からなる。_x000D_
+これらは明治33(1900)年に、水野家第十代当主忠幹(ただもと)から南葵文庫に寄贈されたものである。関東大震災の後、南葵文庫の蔵書は東京帝国大学へと寄贈されるが、本文書は未整理のまま留め置かれていた。このたび調査が行われ、東京大学総合図書館はこの5点を貴重図書に指定した。_x000D_
+_x000D_
+解題_x000D_
+_x000D_
+【太政官牒について】(A00:6584)_x000D_
+【古文書巻子三軸について】(A00:6585)_x000D_
+_x000D_
+ 富田正弘(富山大学名誉教授)_x000D_
+ 小島浩之(東京大学大学院経済学研究科講師)</t>
+  </si>
+  <si>
     <t>ライセンス</t>
   </si>
   <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>d28ad412-0d21-4a16-ab81-840fe3ffde71</t>
+  </si>
+  <si>
     <t>ウェブサイトURL</t>
   </si>
   <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/mizuno/</t>
+  </si>
+  <si>
     <t>アイテムURL</t>
   </si>
   <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/mizuno/document/d28ad412-0d21-4a16-ab81-840fe3ffde71</t>
+  </si>
+  <si>
     <t>サムネイル</t>
   </si>
   <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f2ddec98528bbfb7b513755619bed5681a143511.jpg</t>
+  </si>
+  <si>
     <t>機械可読ドキュメント</t>
   </si>
   <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/12</t>
+  </si>
+  <si>
     <t>帰属</t>
   </si>
   <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
+  </si>
+  <si>
     <t>viewingDirection</t>
   </si>
   <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
+    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
+  </si>
+  <si>
     <t>viewingHint</t>
   </si>
   <si>
+    <t>sc:viewingHint</t>
+  </si>
+  <si>
     <t>コレクション</t>
   </si>
   <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
     <t>ソート用項目</t>
   </si>
   <si>
+    <t>uterms:sort</t>
+  </si>
+  <si>
     <t>西暦</t>
   </si>
   <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
     <t>IIIFマニフェストURI</t>
   </si>
   <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/d28ad412-0d21-4a16-ab81-840fe3ffde71/manifest</t>
+  </si>
+  <si>
     <t>IIIF Search API URI</t>
   </si>
   <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
     <t>アノテーション付きIIIFマニフェストURI</t>
   </si>
   <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
     <t>Link to TAPAS Project</t>
   </si>
   <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
     <t>Text with Rich Text Format</t>
   </si>
   <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
     <t># of media</t>
-  </si>
-  <si>
-    <t>dcterms:title</t>
-  </si>
-  <si>
-    <t>dcterms:description</t>
-  </si>
-  <si>
-    <t>dcterms:rights</t>
-  </si>
-  <si>
-    <t>bibo:identifier</t>
-  </si>
-  <si>
-    <t>dcterms:isPartOf</t>
-  </si>
-  <si>
-    <t>dcterms:relation</t>
-  </si>
-  <si>
-    <t>foaf:thumbnail</t>
-  </si>
-  <si>
-    <t>rdfs:seeAlso</t>
-  </si>
-  <si>
-    <t>sc:attributionLabel</t>
-  </si>
-  <si>
-    <t>sc:viewingDirection</t>
-  </si>
-  <si>
-    <t>sc:viewingHint</t>
-  </si>
-  <si>
-    <t>uterms:databaseLabel</t>
-  </si>
-  <si>
-    <t>uterms:sort</t>
-  </si>
-  <si>
-    <t>uterms:year</t>
-  </si>
-  <si>
-    <t>uterms:manifestUri</t>
-  </si>
-  <si>
-    <t>uterms:searchApiUri</t>
-  </si>
-  <si>
-    <t>uterms:annotedManifest</t>
-  </si>
-  <si>
-    <t>uterms:linkToTapas</t>
-  </si>
-  <si>
-    <t>uterms:rtf</t>
-  </si>
-  <si>
-    <t>水野家古文書(水野忠幹氏旧蔵書文書)</t>
-  </si>
-  <si>
-    <t>水野家古文書(水野忠幹氏旧蔵書文書)
-概要
-本文書は、紀州徳川家の附家老であった水野家が所蔵していた古文書類で、太政官牒二紙、複数の古文書を表装した巻子三軸からなる。
-これらは明治33(1900)年に、水野家第十代当主忠幹(ただもと)から南葵文庫に寄贈されたものである。関東大震災の後、南葵文庫の蔵書は東京帝国大学へと寄贈されるが、本文書は未整理のまま留め置かれていた。このたび調査が行われ、東京大学総合図書館はこの5点を貴重図書に指定した。
-解題
-【太政官牒について】(A00:6584)
-【古文書巻子三軸について】(A00:6585)
- 富田正弘(富山大学名誉教授)
- 小島浩之(東京大学大学院経済学研究科講師)</t>
-  </si>
-  <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
-  </si>
-  <si>
-    <t>d28ad412-0d21-4a16-ab81-840fe3ffde71</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/mizuno/</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/mizuno/document/d28ad412-0d21-4a16-ab81-840fe3ffde71</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f2ddec98528bbfb7b513755619bed5681a143511.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/12</t>
-  </si>
-  <si>
-    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
-  </si>
-  <si>
-    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/d28ad412-0d21-4a16-ab81-840fe3ffde71/manifest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -206,16 +215,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -503,192 +519,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="T1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" t="n">
+        <v>48</v>
+      </c>
+      <c r="T2">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
+    <hyperlink ref="H3" r:id="rId5"/>
+    <hyperlink ref="J3" r:id="rId6" location="rightToLeftDirection"/>
+    <hyperlink ref="O3" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/collections/mizuno/metadata/data.xlsx
+++ b/docs/collections/mizuno/metadata/data.xlsx
@@ -1,206 +1,203 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>ライセンス</t>
+  </si>
+  <si>
+    <t>iiif viewer</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>アイテムURL</t>
+  </si>
+  <si>
+    <t>サムネイル</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>viewingHint</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>ソート用項目</t>
+  </si>
+  <si>
+    <t>西暦</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>IIIF Search API URI</t>
+  </si>
+  <si>
+    <t>アノテーション付きIIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>Link to TAPAS Project</t>
+  </si>
+  <si>
+    <t>Text with Rich Text Format</t>
+  </si>
+  <si>
+    <t># of media</t>
+  </si>
+  <si>
     <t>dcterms:title</t>
   </si>
   <si>
+    <t>dcterms:description</t>
+  </si>
+  <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
+    <t>sc:viewingHint</t>
+  </si>
+  <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
+    <t>uterms:sort</t>
+  </si>
+  <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
     <t>水野家古文書(水野忠幹氏旧蔵書文書)</t>
   </si>
   <si>
-    <t>説明</t>
-  </si>
-  <si>
-    <t>dcterms:description</t>
-  </si>
-  <si>
-    <t>水野家古文書(水野忠幹氏旧蔵書文書)_x000D_
-概要_x000D_
-_x000D_
-本文書は、紀州徳川家の附家老であった水野家が所蔵していた古文書類で、太政官牒二紙、複数の古文書を表装した巻子三軸からなる。_x000D_
-これらは明治33(1900)年に、水野家第十代当主忠幹(ただもと)から南葵文庫に寄贈されたものである。関東大震災の後、南葵文庫の蔵書は東京帝国大学へと寄贈されるが、本文書は未整理のまま留め置かれていた。このたび調査が行われ、東京大学総合図書館はこの5点を貴重図書に指定した。_x000D_
-_x000D_
-解題_x000D_
-_x000D_
-【太政官牒について】(A00:6584)_x000D_
-【古文書巻子三軸について】(A00:6585)_x000D_
-_x000D_
- 富田正弘(富山大学名誉教授)_x000D_
+    <t>水野家古文書(水野忠幹氏旧蔵書文書)
+概要
+本文書は、紀州徳川家の附家老であった水野家が所蔵していた古文書類で、太政官牒二紙、複数の古文書を表装した巻子三軸からなる。
+これらは明治33(1900)年に、水野家第十代当主忠幹(ただもと)から南葵文庫に寄贈されたものである。関東大震災の後、南葵文庫の蔵書は東京帝国大学へと寄贈されるが、本文書は未整理のまま留め置かれていた。このたび調査が行われ、東京大学総合図書館はこの5点を貴重図書に指定した。
+解題
+【太政官牒について】(A00:6584)
+【古文書巻子三軸について】(A00:6585)
+ 富田正弘(富山大学名誉教授)
  小島浩之(東京大学大学院経済学研究科講師)</t>
   </si>
   <si>
-    <t>ライセンス</t>
-  </si>
-  <si>
-    <t>dcterms:rights</t>
-  </si>
-  <si>
     <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>bibo:identifier</t>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/d28ad412-0d21-4a16-ab81-840fe3ffde71.json</t>
   </si>
   <si>
     <t>d28ad412-0d21-4a16-ab81-840fe3ffde71</t>
   </si>
   <si>
-    <t>ウェブサイトURL</t>
-  </si>
-  <si>
-    <t>dcterms:isPartOf</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/mizuno/</t>
   </si>
   <si>
-    <t>アイテムURL</t>
-  </si>
-  <si>
-    <t>dcterms:relation</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/mizuno/document/d28ad412-0d21-4a16-ab81-840fe3ffde71</t>
   </si>
   <si>
-    <t>サムネイル</t>
-  </si>
-  <si>
-    <t>foaf:thumbnail</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f2ddec98528bbfb7b513755619bed5681a143511.jpg</t>
   </si>
   <si>
-    <t>機械可読ドキュメント</t>
-  </si>
-  <si>
-    <t>rdfs:seeAlso</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/12</t>
   </si>
   <si>
-    <t>帰属</t>
-  </si>
-  <si>
-    <t>sc:attributionLabel</t>
-  </si>
-  <si>
     <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
   </si>
   <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>sc:viewingDirection</t>
-  </si>
-  <si>
     <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
   </si>
   <si>
-    <t>viewingHint</t>
-  </si>
-  <si>
-    <t>sc:viewingHint</t>
-  </si>
-  <si>
-    <t>コレクション</t>
-  </si>
-  <si>
-    <t>uterms:databaseLabel</t>
-  </si>
-  <si>
-    <t>ソート用項目</t>
-  </si>
-  <si>
-    <t>uterms:sort</t>
-  </si>
-  <si>
-    <t>西暦</t>
-  </si>
-  <si>
-    <t>uterms:year</t>
-  </si>
-  <si>
-    <t>IIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>uterms:manifestUri</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/d28ad412-0d21-4a16-ab81-840fe3ffde71/manifest</t>
-  </si>
-  <si>
-    <t>IIIF Search API URI</t>
-  </si>
-  <si>
-    <t>uterms:searchApiUri</t>
-  </si>
-  <si>
-    <t>アノテーション付きIIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>uterms:annotedManifest</t>
-  </si>
-  <si>
-    <t>Link to TAPAS Project</t>
-  </si>
-  <si>
-    <t>uterms:linkToTapas</t>
-  </si>
-  <si>
-    <t>Text with Rich Text Format</t>
-  </si>
-  <si>
-    <t>uterms:rtf</t>
-  </si>
-  <si>
-    <t># of media</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -215,23 +212,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -519,188 +509,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
         <v>32</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
         <v>34</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
         <v>36</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" t="s">
         <v>38</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
         <v>43</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
         <v>45</v>
       </c>
-      <c r="S1" t="s">
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
         <v>47</v>
       </c>
-      <c r="T1" t="s">
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s">
         <v>40</v>
       </c>
-      <c r="T3">
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="F3" r:id="rId3"/>
-    <hyperlink ref="G3" r:id="rId4"/>
-    <hyperlink ref="H3" r:id="rId5"/>
-    <hyperlink ref="J3" r:id="rId6" location="rightToLeftDirection"/>
-    <hyperlink ref="O3" r:id="rId7"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/docs/collections/mizuno/metadata/data.xlsx
+++ b/docs/collections/mizuno/metadata/data.xlsx
@@ -15,11 +15,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>タイトルよみ</t>
+  </si>
+  <si>
+    <t>請求記号</t>
+  </si>
+  <si>
+    <t>書誌事項</t>
+  </si>
+  <si>
     <t>説明</t>
   </si>
   <si>
@@ -81,6 +90,15 @@
   </si>
   <si>
     <t>dcterms:title</t>
+  </si>
+  <si>
+    <t>dcndl:titleTranscription</t>
+  </si>
+  <si>
+    <t>dcndl:callNumber</t>
+  </si>
+  <si>
+    <t>archiveshub:note</t>
   </si>
   <si>
     <t>dcterms:description</t>
@@ -514,7 +532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +540,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -586,120 +604,141 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" t="n">
+        <v>42</v>
+      </c>
+      <c r="U2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
+      </c>
       <c r="M3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="N3" t="s">
+        <v>56</v>
+      </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="s">
+        <v>57</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
+      <c r="U3" t="s"/>
+      <c r="V3" t="s"/>
+      <c r="W3" t="s"/>
+      <c r="X3" t="n">
         <v>55</v>
       </c>
     </row>
